--- a/src/test/java/testing/reports/TestResult_TestSuite1.xlsx
+++ b/src/test/java/testing/reports/TestResult_TestSuite1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="155">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -497,9 +497,6 @@
   </si>
   <si>
     <t>AAAAAAAAA</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1272,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3777,7 +3774,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>36</v>
@@ -3863,15 +3860,17 @@
         <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="12">
         <f>COUNTIF(C2:C44,"Yes")</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>41</v>
@@ -3903,15 +3902,17 @@
         <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="12">
         <f>COUNTIF(C3:C45,"No")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>40</v>
@@ -3943,9 +3944,11 @@
         <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3955,9 +3958,11 @@
         <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3967,9 +3972,11 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3979,9 +3986,11 @@
         <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3991,9 +4000,11 @@
         <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4003,9 +4014,11 @@
         <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
@@ -4091,7 +4104,9 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -4113,7 +4128,9 @@
       <c r="F3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -4133,7 +4150,9 @@
         <v>93</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4152,7 +4171,9 @@
       <c r="F5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4171,7 +4192,9 @@
       <c r="F6" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4190,7 +4213,9 @@
       <c r="F7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4205,7 +4230,9 @@
         <v>12</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4325,7 +4352,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4343,7 +4370,9 @@
         <v>66</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4362,7 +4391,9 @@
         <v>68</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4381,7 +4412,9 @@
         <v>70</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4402,7 +4435,9 @@
       <c r="F8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4419,7 +4454,9 @@
         <v>12</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4487,7 +4524,9 @@
         <v>67</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -4509,7 +4548,9 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -4533,7 +4574,9 @@
       <c r="F4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4554,7 +4597,9 @@
       <c r="F5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4573,7 +4618,9 @@
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4592,7 +4639,9 @@
         <v>13</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4613,7 +4662,9 @@
       <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4634,7 +4685,9 @@
       <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4651,7 +4704,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4724,7 +4779,9 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -4748,7 +4805,9 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -4772,7 +4831,9 @@
       <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4789,7 +4850,9 @@
         <v>68</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4808,7 +4871,9 @@
         <v>91</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4825,7 +4890,9 @@
         <v>13</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4842,7 +4909,9 @@
         <v>13</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4857,7 +4926,9 @@
         <v>93</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4872,7 +4943,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4946,7 +5019,9 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -4968,7 +5043,9 @@
       <c r="F3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -4986,7 +5063,9 @@
         <v>93</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5005,7 +5084,9 @@
       <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5022,7 +5103,9 @@
         <v>82</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5039,7 +5122,9 @@
         <v>93</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5058,7 +5143,9 @@
       <c r="F8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5075,7 +5162,9 @@
         <v>82</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -5092,7 +5181,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5166,7 +5257,9 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -5188,7 +5281,9 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -5210,7 +5305,9 @@
         <v>13</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5229,7 +5326,9 @@
         <v>13</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5248,7 +5347,9 @@
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5267,7 +5368,9 @@
         <v>13</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5284,7 +5387,9 @@
         <v>13</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5299,7 +5404,9 @@
         <v>12</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5372,7 +5479,9 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -5394,7 +5503,9 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -5418,7 +5529,9 @@
       <c r="F4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5439,7 +5552,9 @@
       <c r="F5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5458,7 +5573,9 @@
         <v>126</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5479,7 +5596,9 @@
       <c r="F7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5500,7 +5619,9 @@
       <c r="F8" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5517,7 +5638,9 @@
         <v>12</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5591,7 +5714,9 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -5613,7 +5738,9 @@
       <c r="F3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -5633,7 +5760,9 @@
         <v>93</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5650,7 +5779,9 @@
         <v>70</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5669,7 +5800,9 @@
       <c r="F6" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5684,7 +5817,9 @@
         <v>12</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5757,7 +5892,9 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
         <v>94</v>
       </c>
@@ -5779,7 +5916,9 @@
       <c r="F3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
         <v>95</v>
       </c>
@@ -5799,7 +5938,9 @@
         <v>93</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5816,7 +5957,9 @@
         <v>138</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5833,7 +5976,9 @@
         <v>140</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5850,7 +5995,9 @@
         <v>142</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5867,7 +6014,9 @@
         <v>13</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5884,7 +6033,9 @@
         <v>144</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -5901,7 +6052,9 @@
         <v>142</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -5916,7 +6069,9 @@
         <v>12</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
